--- a/app/public/docx/template_user.xlsx
+++ b/app/public/docx/template_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
   <si>
     <t>劳务合
 同编号</t>
@@ -48,46 +48,14 @@
     <t>户籍</t>
   </si>
   <si>
-    <t>身份证号</t>
+    <t>身份证</t>
   </si>
   <si>
     <t>技能证书编号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本合同期限
-执行下列第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>款</t>
-    </r>
+    <t>本合同期限
+执行下列第款</t>
   </si>
   <si>
     <t>合同自始</t>
@@ -100,11 +68,16 @@
 期限为 月</t>
   </si>
   <si>
-    <t>试用期
-  个月</t>
-  </si>
-  <si>
-    <t>自始</t>
+    <t>试用期几个月</t>
+  </si>
+  <si>
+    <t>试用期开始</t>
+  </si>
+  <si>
+    <t>试用期结束</t>
+  </si>
+  <si>
+    <t>合同自始2</t>
   </si>
   <si>
     <t>工程</t>
@@ -122,17 +95,17 @@
     <t>工作地点</t>
   </si>
   <si>
-    <t>执行第   款</t>
+    <t>工资结算执行第款</t>
   </si>
   <si>
     <t>日结
 每日工作时间</t>
   </si>
   <si>
-    <t>计件：优良/合格</t>
-  </si>
-  <si>
-    <t>生活费    元/天</t>
+    <t>计件_优良_合格</t>
+  </si>
+  <si>
+    <t>生活费多少元每天</t>
   </si>
   <si>
     <t xml:space="preserve">此费用包含：       </t>
@@ -215,15 +188,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +220,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -255,7 +289,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,45 +325,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,83 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -408,43 +373,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,139 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,17 +608,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,11 +656,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,36 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,137 +725,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,12 +894,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1289,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1305,6 +1264,7 @@
     <col min="12" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="14" width="13.375" customWidth="1"/>
     <col min="17" max="19" width="13.375" customWidth="1"/>
+    <col min="25" max="25" width="13.125" customWidth="1"/>
     <col min="32" max="32" width="10.375" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
@@ -1362,52 +1322,52 @@
         <v>16</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="13" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:33">
@@ -1442,27 +1402,27 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
         <v>15820786567</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="8">
         <f ca="1" t="shared" ref="G3:G7" si="0">INT(H3)</f>
@@ -1470,16 +1430,16 @@
       </c>
       <c r="H3" s="9">
         <f ca="1" t="shared" ref="H3:H7" si="1">(AF3-AG3)/365</f>
-        <v>35.1917808219178</v>
+        <v>35.2027397260274</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
@@ -1506,67 +1466,67 @@
         <v>43101</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF3" s="15">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="13">
         <f ca="1" t="shared" ref="AF3:AF7" si="2">TODAY()</f>
-        <v>43694</v>
+        <v>43698</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:33">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6">
         <v>15820586567</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="8">
         <f ca="1" t="shared" si="0"/>
@@ -1574,16 +1534,16 @@
       </c>
       <c r="H4" s="9">
         <f ca="1" t="shared" si="1"/>
-        <v>35.1890410958904</v>
+        <v>35.2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -1610,67 +1570,67 @@
         <v>43101</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="15">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="13">
         <f ca="1" t="shared" si="2"/>
-        <v>43694</v>
+        <v>43698</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <v>15820686567</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="8">
         <f ca="1" t="shared" si="0"/>
@@ -1678,16 +1638,16 @@
       </c>
       <c r="H5" s="9">
         <f ca="1" t="shared" si="1"/>
-        <v>35.186301369863</v>
+        <v>35.1972602739726</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="6">
         <v>3</v>
@@ -1714,67 +1674,67 @@
         <v>43101</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="15">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="13">
         <f ca="1" t="shared" si="2"/>
-        <v>43694</v>
+        <v>43698</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <v>15820886567</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8">
         <f ca="1" t="shared" si="0"/>
@@ -1782,16 +1742,16 @@
       </c>
       <c r="H6" s="9">
         <f ca="1" t="shared" si="1"/>
-        <v>35.1835616438356</v>
+        <v>35.1945205479452</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6">
         <v>4</v>
@@ -1818,67 +1778,67 @@
         <v>43101</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF6" s="15">
+        <v>33</v>
+      </c>
+      <c r="AF6" s="13">
         <f ca="1" t="shared" si="2"/>
-        <v>43694</v>
+        <v>43698</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6">
         <v>15820996567</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="8">
         <f ca="1" t="shared" si="0"/>
@@ -1886,16 +1846,16 @@
       </c>
       <c r="H7" s="9">
         <f ca="1" t="shared" si="1"/>
-        <v>35.1808219178082</v>
+        <v>35.1917808219178</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6">
         <v>5</v>
@@ -1922,47 +1882,47 @@
         <v>43101</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF7" s="15">
+        <v>33</v>
+      </c>
+      <c r="AF7" s="13">
         <f ca="1" t="shared" si="2"/>
-        <v>43694</v>
+        <v>43698</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
